--- a/data/trans_orig/P36S4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{253C16C8-D76A-4F67-94E3-26A5E32B83A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1A67C3-435B-4F49-A231-23AFF3E2F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{529175A3-A848-45C5-A38D-7B9B8A4A5B15}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{050B397D-4837-4C13-858A-38AEBF6FE8EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="205">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2007 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -109,55 +109,55 @@
     <t>25,17%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>33,68%</t>
+    <t>34,11%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>66,32%</t>
+    <t>65,89%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>41,69%</t>
+    <t>42,92%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -166,7 +166,7 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>16,92%</t>
+    <t>17,98%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,61 +202,61 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>82,94%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>31,04%</t>
+    <t>24,41%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -265,7 +265,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>9,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,37 +304,37 @@
     <t>11,3%</t>
   </si>
   <si>
-    <t>57,72%</t>
+    <t>48,49%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>40,52%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>36,81%</t>
+    <t>32,0%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>42,28%</t>
+    <t>51,51%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>60,07%</t>
+    <t>59,48%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>63,19%</t>
+    <t>68,0%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -346,13 +346,13 @@
     <t>12,85%</t>
   </si>
   <si>
-    <t>64,84%</t>
+    <t>60,81%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>37,77%</t>
+    <t>46,66%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -361,61 +361,61 @@
     <t>87,15%</t>
   </si>
   <si>
-    <t>35,16%</t>
+    <t>39,19%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>62,23%</t>
+    <t>53,34%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>31,5%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>68,5%</t>
+    <t>72,81%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -430,49 +430,49 @@
     <t>46,28%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>62,74%</t>
+    <t>62,92%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>53,72%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>37,26%</t>
+    <t>37,08%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -484,55 +484,55 @@
     <t>39,3%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>60,7%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -547,55 +547,49 @@
     <t>70,38%</t>
   </si>
   <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>44,64%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>55,36%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -607,58 +601,55 @@
     <t>47,0%</t>
   </si>
   <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>57,01%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -1073,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA5AB19-C6EC-4F98-B892-F4D23C42EB6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199EB1A6-B431-4428-8D2F-CB3112470A29}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2028,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C03103B-9C33-4E9F-A1CC-921399100D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B90380B-A009-4933-A2E5-993668A2157B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2983,7 +2974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E41FB07-5D54-430D-8FE8-B61482652465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CEA91C-34ED-46FE-9C81-70752D423766}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3549,13 +3540,13 @@
         <v>16293</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3561,13 @@
         <v>5203</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3585,13 +3576,13 @@
         <v>4874</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3600,13 +3591,13 @@
         <v>10077</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3642,7 +3633,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3725,13 +3716,13 @@
         <v>37897</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3740,13 +3731,13 @@
         <v>15708</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3755,13 +3746,13 @@
         <v>53605</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3767,13 @@
         <v>42728</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3791,13 +3782,13 @@
         <v>28367</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -3806,13 +3797,13 @@
         <v>71095</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3863,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36S4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1A67C3-435B-4F49-A231-23AFF3E2F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7005E282-5207-4D64-9D62-153979076DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{050B397D-4837-4C13-858A-38AEBF6FE8EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{198187E6-18C4-4977-AB98-0A023DB58382}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="208">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2007 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -109,55 +109,55 @@
     <t>25,17%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>34,11%</t>
+    <t>38,26%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>65,89%</t>
+    <t>61,74%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>42,92%</t>
+    <t>45,48%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -166,7 +166,7 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>17,98%</t>
+    <t>17,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -181,7 +181,7 @@
     <t>30,1%</t>
   </si>
   <si>
-    <t>77,51%</t>
+    <t>77,94%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -193,7 +193,7 @@
     <t>69,9%</t>
   </si>
   <si>
-    <t>22,49%</t>
+    <t>22,06%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -202,61 +202,61 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>82,94%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>24,41%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -265,7 +265,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>9,44%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,37 +304,37 @@
     <t>11,3%</t>
   </si>
   <si>
-    <t>48,49%</t>
+    <t>48,84%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>40,52%</t>
+    <t>49,0%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>32,0%</t>
+    <t>31,55%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>51,51%</t>
+    <t>51,16%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>59,48%</t>
+    <t>51,0%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>68,0%</t>
+    <t>68,45%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -346,13 +346,13 @@
     <t>12,85%</t>
   </si>
   <si>
-    <t>60,81%</t>
+    <t>65,81%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>46,66%</t>
+    <t>38,52%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -361,295 +361,304 @@
     <t>87,15%</t>
   </si>
   <si>
-    <t>39,19%</t>
+    <t>34,19%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>53,34%</t>
+    <t>61,48%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>27,19%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2016 (Tasa respuesta: 1,86%)</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
     <t>4,25%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2015 (Tasa respuesta: 1,86%)</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -1064,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199EB1A6-B431-4428-8D2F-CB3112470A29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A70067E-92CC-450F-9EA6-64C47A7D3474}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,7 +2028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B90380B-A009-4933-A2E5-993668A2157B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200435D4-227B-4922-8B8B-B76BC6981F35}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2974,7 +2983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CEA91C-34ED-46FE-9C81-70752D423766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BAD625-C5CA-44B2-A165-7485F7422CFF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,13 +3549,13 @@
         <v>16293</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3570,13 @@
         <v>5203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3576,13 +3585,13 @@
         <v>4874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3591,13 +3600,13 @@
         <v>10077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3633,7 +3642,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3716,13 +3725,13 @@
         <v>37897</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3731,13 +3740,13 @@
         <v>15708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3746,13 +3755,13 @@
         <v>53605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3776,13 @@
         <v>42728</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3782,13 +3791,13 @@
         <v>28367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -3797,13 +3806,13 @@
         <v>71095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3854,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
